--- a/预测分析表.xlsx
+++ b/预测分析表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t xml:space="preserve">          </t>
   </si>
@@ -40,21 +40,21 @@
     <t xml:space="preserve">int  </t>
   </si>
   <si>
+    <t xml:space="preserve">,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">]    </t>
+  </si>
+  <si>
     <t xml:space="preserve">id   </t>
   </si>
   <si>
-    <t xml:space="preserve">,    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[    </t>
-  </si>
-  <si>
     <t xml:space="preserve">num  </t>
   </si>
   <si>
-    <t xml:space="preserve">]    </t>
-  </si>
-  <si>
     <t xml:space="preserve">=    </t>
   </si>
   <si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">varextra  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">idnum     </t>
   </si>
   <si>
     <t xml:space="preserve">funcdef   </t>
@@ -206,8 +209,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -215,6 +218,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,19 +236,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,8 +265,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,8 +280,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,24 +328,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,38 +345,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,6 +353,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,7 +374,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,13 +410,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,55 +470,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,37 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,37 +536,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,8 +580,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,8 +589,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,6 +620,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -632,183 +665,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,10 +1138,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AC33"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A26" sqref="A1:AC33"/>
+    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D8" sqref="A1:AC34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1267,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1436,16 +1439,16 @@
         <v>3</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>5</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1522,19 +1525,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>4</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1792,19 +1795,19 @@
         <v>0</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>9</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
       <c r="M8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1881,13 +1884,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1970,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>13</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
       <c r="M10">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2044,31 +2047,31 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>15</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>14</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2133,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2145,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2157,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2222,34 +2225,34 @@
         <v>0</v>
       </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>18</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>19</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
       <c r="M13">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2311,19 +2314,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>20</v>
@@ -2374,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2412,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2424,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2463,16 +2466,16 @@
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB15">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2495,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2504,17 +2507,17 @@
         <v>0</v>
       </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>26</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
       <c r="M16">
         <v>0</v>
       </c>
@@ -2552,16 +2555,16 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2575,40 +2578,40 @@
         <v>0</v>
       </c>
       <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>27</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -2664,40 +2667,40 @@
         <v>0</v>
       </c>
       <c r="C18">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
         <v>29</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -2756,7 +2759,7 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2771,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2780,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -2842,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2857,22 +2860,22 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2934,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2949,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2964,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -3020,40 +3023,40 @@
         <v>0</v>
       </c>
       <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
         <v>35</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>35</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>35</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -3106,88 +3109,88 @@
         <v>50</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G23">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="O23">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="P23">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -3198,11 +3201,11 @@
         <v>0</v>
       </c>
       <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>39</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
       <c r="E24">
         <v>0</v>
       </c>
@@ -3210,13 +3213,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3225,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3234,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -3284,88 +3287,88 @@
         <v>52</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D25">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G25">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="O25">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="P25">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="R25">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3376,11 +3379,11 @@
         <v>0</v>
       </c>
       <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>43</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
       <c r="E26">
         <v>0</v>
       </c>
@@ -3388,13 +3391,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3403,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -3412,16 +3415,16 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3465,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3483,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3492,10 +3495,10 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -3554,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3581,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -3602,22 +3605,22 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -3691,25 +3694,25 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y29">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3741,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3750,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3798,16 +3801,16 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z30">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -3830,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3848,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3887,16 +3890,16 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA31">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -3943,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -3982,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -4032,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -4074,9 +4077,98 @@
         <v>0</v>
       </c>
       <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
         <v>58</v>
       </c>
-      <c r="AC33">
+      <c r="AC34">
         <v>0</v>
       </c>
     </row>
